--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2866209.360438052</v>
+        <v>2864003.267031615</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604728</v>
+        <v>7094780.682604727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
         <v>161.4125322208642</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866673</v>
+        <v>69.92680236866671</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776873</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>222.2830682057223</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>385.7559826412947</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154846</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015499</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
-        <v>41.20663521381058</v>
+        <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
         <v>225.8965846405547</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>194.2853119443131</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255588</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.6253882365108</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>148.2195631834883</v>
+        <v>139.0419139044168</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>35.15634648102557</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>32.56842626327222</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1026,7 +1026,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>60.44533761123545</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>42.93165166918606</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>375.2540714240162</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>231.4408706859778</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>110.6977437732686</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.1096626559145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>73.23313841979029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>136.0325688578951</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>13.2145510335545</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,7 +2059,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>213.4727252947976</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>31.00319170731854</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>36.02766158664654</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>214.8467271449452</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>148.5873298926978</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>32.83323659136417</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,19 +3004,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997101</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.909751326179</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>18.41803262400956</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>181.4742867558205</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880183</v>
+        <v>6.081513486880162</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213007</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>42.44639787602608</v>
       </c>
       <c r="C37" t="n">
         <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
-        <v>59.63248521678328</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>109.9256317368855</v>
@@ -3439,10 +3439,10 @@
         <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379232</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400156</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
@@ -3509,10 +3509,10 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862163</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556659</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G38" t="n">
         <v>375.4263093674077</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880169</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535744</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247693</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,7 +3661,7 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
         <v>113.1200567321666</v>
@@ -3670,16 +3670,16 @@
         <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>28.18229106046768</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>19.32915229875311</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880127</v>
+        <v>6.081513486880162</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213001</v>
+        <v>73.69234550213004</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
         <v>215.4997556728562</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247694</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>101.7161370135511</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>109.9256317368854</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>28.64022595311723</v>
       </c>
       <c r="H43" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379227</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400151</v>
+        <v>53.43673638400153</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3952,7 +3952,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V43" t="n">
         <v>216.6422270377822</v>
@@ -3986,7 +3986,7 @@
         <v>346.4349537862159</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556659</v>
+        <v>371.3806294556653</v>
       </c>
       <c r="G44" t="n">
         <v>375.4263093674076</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880112</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213004</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
         <v>292.2568421840891</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247694</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,22 +4138,22 @@
         <v>131.751404812582</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E46" t="n">
-        <v>3.809622972511314</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
         <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>26.96127822086839</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379227</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400153</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4189,7 +4189,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V46" t="n">
         <v>216.6422270377822</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636.45843967756</v>
+        <v>966.1972308736691</v>
       </c>
       <c r="C2" t="n">
-        <v>636.45843967756</v>
+        <v>966.1972308736691</v>
       </c>
       <c r="D2" t="n">
-        <v>636.45843967756</v>
+        <v>966.1972308736691</v>
       </c>
       <c r="E2" t="n">
-        <v>636.45843967756</v>
+        <v>966.1972308736691</v>
       </c>
       <c r="F2" t="n">
-        <v>629.5129389283566</v>
+        <v>959.2517301244657</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942732</v>
+        <v>541.0395078903823</v>
       </c>
       <c r="H2" t="n">
         <v>211.3007166942732</v>
       </c>
       <c r="I2" t="n">
-        <v>48.2577548550164</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244787</v>
+        <v>143.3613405244789</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293507</v>
+        <v>406.6417666293512</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024647</v>
+        <v>785.5410436024652</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782772</v>
+        <v>1223.746040782773</v>
       </c>
       <c r="N2" t="n">
         <v>1654.409655400864</v>
@@ -4349,31 +4349,31 @@
         <v>2286.722307110681</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.88774275082</v>
+        <v>2412.887742750821</v>
       </c>
       <c r="R2" t="n">
         <v>2342.254609045096</v>
       </c>
       <c r="S2" t="n">
-        <v>2342.254609045096</v>
+        <v>2160.41638432016</v>
       </c>
       <c r="T2" t="n">
-        <v>2342.254609045096</v>
+        <v>1940.69428442821</v>
       </c>
       <c r="U2" t="n">
-        <v>2342.254609045096</v>
+        <v>1686.912625935719</v>
       </c>
       <c r="V2" t="n">
-        <v>2011.191721701525</v>
+        <v>1355.849738592149</v>
       </c>
       <c r="W2" t="n">
-        <v>1786.663369978573</v>
+        <v>1355.849738592149</v>
       </c>
       <c r="X2" t="n">
-        <v>1413.197611717494</v>
+        <v>1355.849738592149</v>
       </c>
       <c r="Y2" t="n">
-        <v>1023.058279741682</v>
+        <v>966.1972308736691</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.7624785076522</v>
+        <v>762.9492225297486</v>
       </c>
       <c r="C3" t="n">
-        <v>676.3094492265252</v>
+        <v>588.4961932486216</v>
       </c>
       <c r="D3" t="n">
-        <v>527.3750395652739</v>
+        <v>439.5617835873703</v>
       </c>
       <c r="E3" t="n">
-        <v>368.1375845598185</v>
+        <v>439.5617835873703</v>
       </c>
       <c r="F3" t="n">
-        <v>221.6030265867035</v>
+        <v>293.0272256142553</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6030265867035</v>
+        <v>154.9841992821091</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8765821596108</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="I3" t="n">
-        <v>48.2577548550164</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="J3" t="n">
         <v>111.2074192719586</v>
@@ -4419,40 +4419,40 @@
         <v>1212.890288538968</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987189</v>
+        <v>1732.736209861812</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602213</v>
+        <v>2141.877989476837</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642323</v>
+        <v>2257.443393642324</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.88774275082</v>
+        <v>2412.887742750821</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841572</v>
+        <v>2412.887742750821</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634277</v>
+        <v>2252.245964543526</v>
       </c>
       <c r="T3" t="n">
-        <v>2152.157447781944</v>
+        <v>2052.831682881827</v>
       </c>
       <c r="U3" t="n">
-        <v>1923.979079458151</v>
+        <v>1824.653314558034</v>
       </c>
       <c r="V3" t="n">
-        <v>1688.826971226408</v>
+        <v>1589.501206326292</v>
       </c>
       <c r="W3" t="n">
-        <v>1434.589614498207</v>
+        <v>1335.26384959809</v>
       </c>
       <c r="X3" t="n">
-        <v>1226.738114292674</v>
+        <v>1127.412349392557</v>
       </c>
       <c r="Y3" t="n">
-        <v>1018.97781552772</v>
+        <v>931.1645595498167</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.5314690659477</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="C4" t="n">
-        <v>260.5314690659477</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="D4" t="n">
-        <v>260.5314690659477</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="E4" t="n">
-        <v>260.5314690659477</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="F4" t="n">
-        <v>260.5314690659477</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="G4" t="n">
-        <v>260.5314690659477</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="H4" t="n">
-        <v>101.7923822515375</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="I4" t="n">
-        <v>101.7923822515375</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="J4" t="n">
-        <v>48.2577548550164</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461055</v>
+        <v>91.87143294461058</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384351</v>
+        <v>203.2083598384352</v>
       </c>
       <c r="M4" t="n">
         <v>330.9866617534299</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692867</v>
+        <v>461.1612976692868</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984542</v>
+        <v>565.3823477984544</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978499</v>
+        <v>631.04077869785</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978499</v>
+        <v>631.04077869785</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978499</v>
+        <v>477.8838208831926</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978499</v>
+        <v>477.8838208831926</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978499</v>
+        <v>477.8838208831926</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978499</v>
+        <v>188.7041325362455</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978499</v>
+        <v>188.7041325362455</v>
       </c>
       <c r="W4" t="n">
-        <v>481.3240482094778</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="X4" t="n">
-        <v>481.3240482094778</v>
+        <v>48.25775485501641</v>
       </c>
       <c r="Y4" t="n">
-        <v>260.5314690659477</v>
+        <v>48.25775485501641</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.689018870909</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>1571.689018870909</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.423320264159</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>827.6350676659142</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>416.6491628763067</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.288858935031</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4674,13 +4674,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.683768698139</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C8" t="n">
-        <v>825.7212517577275</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D8" t="n">
-        <v>825.7212517577275</v>
+        <v>847.844772492695</v>
       </c>
       <c r="E8" t="n">
-        <v>439.9329991594832</v>
+        <v>462.0565198944508</v>
       </c>
       <c r="F8" t="n">
-        <v>432.9874984102798</v>
+        <v>455.1110191452473</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>441.1876150838382</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,25 +5042,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272054</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.070220408989</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.336921276364</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.240599230347</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W13" t="n">
-        <v>1377.823429193386</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X13" t="n">
-        <v>1377.823429193386</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.985386106604</v>
+        <v>508.0400813400983</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>2762.028521254639</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O14" t="n">
-        <v>3641.993171584094</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4355.34825903104</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5346,28 +5346,28 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.822894557956</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5470,16 +5470,16 @@
         <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1281.670659466704</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>992.2534894297431</v>
+        <v>811.5418683145533</v>
       </c>
       <c r="X16" t="n">
-        <v>764.2639385317258</v>
+        <v>583.552317416536</v>
       </c>
       <c r="Y16" t="n">
-        <v>543.4713593881957</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5501,10 +5501,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,19 +5592,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>339.1038984121912</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C19" t="n">
-        <v>339.1038984121912</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>339.1038984121912</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>339.1038984121912</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121912</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121912</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1038.159084177409</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W19" t="n">
-        <v>748.7419141404482</v>
+        <v>874.5404723472666</v>
       </c>
       <c r="X19" t="n">
-        <v>520.7523632424309</v>
+        <v>646.5509214492492</v>
       </c>
       <c r="Y19" t="n">
-        <v>520.7523632424309</v>
+        <v>425.7583423057192</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3515.905934867956</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4018.878405747293</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4413.65277210447</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4661.939133860153</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5789,7 +5789,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193594</v>
@@ -5838,7 +5838,7 @@
         <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008795</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>242.4509819463048</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C22" t="n">
-        <v>242.4509819463048</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D22" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,49 +5911,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1643.51076942914</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1354.407902554783</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783411</v>
+        <v>1099.723414348896</v>
       </c>
       <c r="W22" t="n">
-        <v>872.881576818092</v>
+        <v>810.3062443119355</v>
       </c>
       <c r="X22" t="n">
-        <v>644.8920259200746</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="Y22" t="n">
-        <v>424.0994467765445</v>
+        <v>582.3166934139181</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,52 +5987,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6151,7 +6151,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6166,10 +6166,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
         <v>1674.827124689058</v>
@@ -6181,16 +6181,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783406</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413801</v>
+        <v>692.256258072335</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433627</v>
+        <v>464.2667071743176</v>
       </c>
       <c r="Y25" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.840519464784</v>
+        <v>1605.620901857741</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2584.171204687569</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>278.8425593065525</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>278.8425593065525</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>128.7259198942168</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>128.7259198942168</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6385,49 +6385,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>909.2731541783397</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>681.2836032803224</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>460.4910241367922</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
-        <v>3517.878731871643</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P29" t="n">
-        <v>4231.233819318589</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.7429179653792</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.788099626699</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W31" t="n">
-        <v>964.3709295897388</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X31" t="n">
-        <v>964.3709295897388</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y31" t="n">
-        <v>857.3913827956189</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143014</v>
@@ -6686,64 +6686,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
         <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2782.232616025903</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N32" t="n">
-        <v>3329.011433084685</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3819.938960973981</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107238</v>
+        <v>4214.713327331159</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6768,22 +6768,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>242.4509819463046</v>
+        <v>413.3805104860111</v>
       </c>
       <c r="C34" t="n">
-        <v>242.4509819463046</v>
+        <v>413.3805104860111</v>
       </c>
       <c r="D34" t="n">
-        <v>242.4509819463046</v>
+        <v>263.2638710736753</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736753</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839444</v>
+        <v>263.2638710736753</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1656.223051331472</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1367.120184457116</v>
       </c>
       <c r="V34" t="n">
-        <v>980.6502820248127</v>
+        <v>1112.435696251229</v>
       </c>
       <c r="W34" t="n">
-        <v>691.233111987852</v>
+        <v>823.0185262142681</v>
       </c>
       <c r="X34" t="n">
-        <v>463.2435610898347</v>
+        <v>595.0289753162508</v>
       </c>
       <c r="Y34" t="n">
-        <v>242.4509819463046</v>
+        <v>595.0289753162508</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2112.26296501002</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
         <v>1106.808364398085</v>
@@ -6929,7 +6929,7 @@
         <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571334</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967277</v>
@@ -6938,25 +6938,25 @@
         <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>928.1877967739978</v>
+        <v>905.6874632520994</v>
       </c>
       <c r="L35" t="n">
-        <v>1379.222010022407</v>
+        <v>1356.721676500508</v>
       </c>
       <c r="M35" t="n">
-        <v>1912.753914694331</v>
+        <v>1890.253581172433</v>
       </c>
       <c r="N35" t="n">
-        <v>2459.532731753114</v>
+        <v>2437.032398231215</v>
       </c>
       <c r="O35" t="n">
-        <v>3251.937792886417</v>
+        <v>3316.99704856067</v>
       </c>
       <c r="P35" t="n">
-        <v>3646.712159243595</v>
+        <v>3711.771414917848</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752583</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983638</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285977</v>
       </c>
       <c r="C36" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474707</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862196</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807642</v>
+        <v>476.992177780764</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076491</v>
       </c>
       <c r="G36" t="n">
         <v>194.0945196402673</v>
@@ -7014,10 +7014,10 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506372</v>
       </c>
       <c r="L36" t="n">
         <v>783.2249624633026</v>
@@ -7053,7 +7053,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W36" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X36" t="n">
         <v>1335.59270751362</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.2589880867694</v>
+        <v>685.1783477027956</v>
       </c>
       <c r="C37" t="n">
-        <v>449.1767610033531</v>
+        <v>552.0961206193793</v>
       </c>
       <c r="D37" t="n">
-        <v>449.1767610033531</v>
+        <v>437.8334370515343</v>
       </c>
       <c r="E37" t="n">
-        <v>388.9419274510468</v>
+        <v>437.8334370515343</v>
       </c>
       <c r="F37" t="n">
-        <v>277.9059357976271</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="G37" t="n">
-        <v>146.0570550168367</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L37" t="n">
         <v>755.6763338935366</v>
@@ -7132,13 +7132,13 @@
         <v>1358.690929617555</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425084</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715578</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.0534970725184</v>
+        <v>728.0534970725189</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>352.4579211424555</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571335</v>
+        <v>90.72827659571338</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J38" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285448</v>
+        <v>928.1877967739975</v>
       </c>
       <c r="L38" t="n">
-        <v>1471.8026539819</v>
+        <v>1625.324975614165</v>
       </c>
       <c r="M38" t="n">
-        <v>2202.186504948298</v>
+        <v>2158.856880286089</v>
       </c>
       <c r="N38" t="n">
-        <v>2748.96532200708</v>
+        <v>2705.635697344871</v>
       </c>
       <c r="O38" t="n">
-        <v>3251.937792886417</v>
+        <v>3208.608168224208</v>
       </c>
       <c r="P38" t="n">
-        <v>3646.712159243595</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752583</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R38" t="n">
         <v>4229.266683983638</v>
@@ -7227,73 +7227,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C39" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E39" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F39" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G39" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H39" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I39" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J39" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K39" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M39" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N39" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O39" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q39" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R39" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S39" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T39" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U39" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V39" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W39" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X39" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y39" t="n">
         <v>1127.832408748666</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867693</v>
+        <v>747.6732151244423</v>
       </c>
       <c r="C40" t="n">
-        <v>582.2589880867693</v>
+        <v>614.5909880410261</v>
       </c>
       <c r="D40" t="n">
-        <v>467.9963045189243</v>
+        <v>500.328304473181</v>
       </c>
       <c r="E40" t="n">
-        <v>355.9371667810219</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="F40" t="n">
-        <v>244.9011751276022</v>
+        <v>388.2691667352786</v>
       </c>
       <c r="G40" t="n">
-        <v>113.0522943468118</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H40" t="n">
-        <v>113.0522943468118</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I40" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497939</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218557</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935373</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M40" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
         <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q40" t="n">
         <v>2226.491462321464</v>
@@ -7360,7 +7360,7 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U40" t="n">
         <v>1577.521461978951</v>
@@ -7372,10 +7372,10 @@
         <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715583</v>
+        <v>912.992120371558</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725182</v>
+        <v>893.4677241101913</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
@@ -7397,37 +7397,37 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571328</v>
+        <v>90.72827659571333</v>
       </c>
       <c r="I41" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J41" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2838383285447</v>
+        <v>928.1877967739975</v>
       </c>
       <c r="L41" t="n">
-        <v>1058.318051576954</v>
+        <v>1792.706612427352</v>
       </c>
       <c r="M41" t="n">
-        <v>2036.868354406782</v>
+        <v>2326.238517099276</v>
       </c>
       <c r="N41" t="n">
-        <v>3016.620626633429</v>
+        <v>2873.017334158058</v>
       </c>
       <c r="O41" t="n">
-        <v>3519.593097512766</v>
+        <v>3375.989805037395</v>
       </c>
       <c r="P41" t="n">
-        <v>3914.367463869944</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q41" t="n">
         <v>4170.249617426835</v>
@@ -7448,10 +7448,10 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
         <v>2463.00884922965</v>
@@ -7464,73 +7464,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C42" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I42" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J42" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K42" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M42" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N42" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O42" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q42" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R42" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T42" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U42" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V42" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X42" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y42" t="n">
         <v>1127.832408748666</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867708</v>
+        <v>582.2589880867699</v>
       </c>
       <c r="C43" t="n">
-        <v>479.5154153458101</v>
+        <v>449.1767610033538</v>
       </c>
       <c r="D43" t="n">
-        <v>479.5154153458101</v>
+        <v>334.9140774355088</v>
       </c>
       <c r="E43" t="n">
-        <v>367.4562776079077</v>
+        <v>334.9140774355088</v>
       </c>
       <c r="F43" t="n">
-        <v>256.4202859544881</v>
+        <v>223.8780857820891</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544881</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I43" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935369</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,34 +7585,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008818</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978952</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617556</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425086</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715596</v>
+        <v>912.9921203715585</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725198</v>
+        <v>728.0534970725189</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7628,43 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E44" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529682</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424554</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571328</v>
+        <v>90.72827659571334</v>
       </c>
       <c r="I44" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K44" t="n">
-        <v>928.1877967739977</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L44" t="n">
-        <v>1379.222010022406</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M44" t="n">
-        <v>1912.753914694331</v>
+        <v>1591.849956248877</v>
       </c>
       <c r="N44" t="n">
-        <v>2892.506186920978</v>
+        <v>2571.602228475524</v>
       </c>
       <c r="O44" t="n">
-        <v>3395.478657800315</v>
+        <v>3208.608168224207</v>
       </c>
       <c r="P44" t="n">
-        <v>3790.253024157493</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q44" t="n">
         <v>4170.249617426835</v>
@@ -7679,10 +7679,10 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W44" t="n">
         <v>3154.90602777756</v>
@@ -7701,73 +7701,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C45" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I45" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J45" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M45" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N45" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R45" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T45" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V45" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X45" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y45" t="n">
         <v>1127.832408748666</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>636.235489484752</v>
+        <v>582.2589880867699</v>
       </c>
       <c r="C46" t="n">
-        <v>503.1532624013357</v>
+        <v>449.1767610033538</v>
       </c>
       <c r="D46" t="n">
-        <v>503.1532624013357</v>
+        <v>334.9140774355088</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886981</v>
+        <v>222.8549396976064</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352785</v>
+        <v>111.8189480441868</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544882</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I46" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497935</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218551</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L46" t="n">
         <v>755.6763338935366</v>
@@ -7822,34 +7822,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q46" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2070.659533992782</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.746874406798</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.497963376933</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.667431015537</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1159.104216823067</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X46" t="n">
-        <v>966.9686217695403</v>
+        <v>912.9921203715586</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.0299984705009</v>
+        <v>728.0534970725189</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>281.5606805308026</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>120.6810748271863</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8690,13 +8690,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>411.0304280899007</v>
+        <v>251.798206237632</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>354.4836849406614</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.84927212317578</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,16 +9167,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M17" t="n">
-        <v>29.61882225792147</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,22 +9407,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>132.9990175570125</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>57.6722444472383</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>170.1140909277316</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>219.3344627260163</v>
+        <v>217.5991828955684</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>314.5564971416995</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.2173930448432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>246.454569480846</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>192.9047586887115</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>301.4178029530855</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>292.3561517716831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>248.5888541330897</v>
       </c>
       <c r="M38" t="n">
-        <v>198.8403497923975</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>152.726347754121</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.672516970918224</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.009326287108706e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>135.3873422922698</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.0406378925862</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.009326287108706e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>115.0119116157686</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.47499069618029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>178.9045049040377</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>82.55208449419965</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>166.6174291483828</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>38.66491802903041</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>188.5457575688507</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>250.4953367499444</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>71.67627119164578</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.99732345939702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5878114315671</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>272.3211098256419</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.6749020259158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>201.1309166521596</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>70.66335656800752</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>101.8901660198654</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>51.30606114374012</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>32.67471306332465</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>163.7600847672959</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>30.03526779903085</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729824</v>
+        <v>101.8901660198652</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.8570041237923</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>107.128923388012</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>103.569113752114</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.8570041237923</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400151</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>762370.2311641346</v>
+        <v>762370.2311641347</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772508.3308981897</v>
+        <v>772508.3308981896</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772508.3308981896</v>
+        <v>772508.3308981898</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772508.3308981898</v>
+        <v>772508.3308981896</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772508.3308981897</v>
+        <v>772508.3308981896</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="G2" t="n">
         <v>655184.9483635225</v>
       </c>
       <c r="H2" t="n">
-        <v>655184.9483635221</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="I2" t="n">
+        <v>655184.9483635228</v>
+      </c>
+      <c r="J2" t="n">
+        <v>655184.9483635228</v>
+      </c>
+      <c r="K2" t="n">
         <v>655184.9483635226</v>
       </c>
-      <c r="J2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="K2" t="n">
-        <v>655184.9483635224</v>
-      </c>
       <c r="L2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635228</v>
       </c>
       <c r="M2" t="n">
+        <v>671940.4829512512</v>
+      </c>
+      <c r="N2" t="n">
+        <v>671940.482951251</v>
+      </c>
+      <c r="O2" t="n">
         <v>671940.4829512514</v>
-      </c>
-      <c r="N2" t="n">
-        <v>671940.4829512507</v>
-      </c>
-      <c r="O2" t="n">
-        <v>671940.4829512516</v>
       </c>
       <c r="P2" t="n">
         <v>671940.4829512511</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394289</v>
+        <v>507203.142839429</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417837</v>
+        <v>78665.28217417827</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>157829.4001410739</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022121</v>
+        <v>18289.94367022117</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.7911881749</v>
+        <v>123848.791188175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501852</v>
+        <v>55718.30868501856</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501852</v>
+        <v>55718.30868501856</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501859</v>
+        <v>55718.30868501861</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501858</v>
+        <v>55718.30868501862</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133447</v>
+        <v>77204.68871133449</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26482,22 +26482,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>91026.04982123678</v>
@@ -26506,10 +26506,10 @@
         <v>91026.04982123678</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123677</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.04982123677</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-139066.1431674492</v>
       </c>
       <c r="C6" t="n">
-        <v>305912.6844374122</v>
+        <v>305912.6844374124</v>
       </c>
       <c r="D6" t="n">
         <v>384577.9666115907</v>
       </c>
       <c r="E6" t="n">
-        <v>-197137.8232364933</v>
+        <v>-197205.0187267193</v>
       </c>
       <c r="F6" t="n">
-        <v>530239.5907569129</v>
+        <v>530172.395266687</v>
       </c>
       <c r="G6" t="n">
-        <v>530239.5907569132</v>
+        <v>530172.3952666876</v>
       </c>
       <c r="H6" t="n">
-        <v>530239.5907569127</v>
+        <v>530172.3952666875</v>
       </c>
       <c r="I6" t="n">
-        <v>530239.5907569133</v>
+        <v>530172.3952666876</v>
       </c>
       <c r="J6" t="n">
-        <v>372410.1906158394</v>
+        <v>372342.9951256136</v>
       </c>
       <c r="K6" t="n">
-        <v>511949.6470866918</v>
+        <v>511882.4515964664</v>
       </c>
       <c r="L6" t="n">
-        <v>530239.5907569129</v>
+        <v>530172.3952666876</v>
       </c>
       <c r="M6" t="n">
-        <v>401347.3332568211</v>
+        <v>401330.9121138307</v>
       </c>
       <c r="N6" t="n">
-        <v>525196.1244449954</v>
+        <v>525179.7033020054</v>
       </c>
       <c r="O6" t="n">
-        <v>525196.1244449962</v>
+        <v>525179.7033020059</v>
       </c>
       <c r="P6" t="n">
-        <v>525196.1244449958</v>
+        <v>525179.7033020054</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O2" t="n">
         <v>35.49541628604582</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687705</v>
+        <v>603.2219356877051</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>316.5685789688995</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818714</v>
+        <v>61.17508524818709</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.221935687705</v>
+        <v>603.2219356877051</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685063</v>
+        <v>71.06533706685047</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.221935687705</v>
+        <v>603.2219356877051</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685063</v>
+        <v>71.06533706685047</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413538</v>
+        <v>383.029398241354</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.221935687705</v>
+        <v>603.2219356877051</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685063</v>
+        <v>71.06533706685047</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930304</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>126.9579005116907</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.4819560147588504</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6625960688247</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.95263903154846</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015498</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>156.2135036312712</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>11.39738383299124</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
         <v>138.2831165792399</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255586</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739056</v>
+        <v>38.36018782739055</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365108</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>214.0680412192119</v>
@@ -27591,19 +27591,19 @@
         <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2878914634775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>138.3034351531027</v>
+        <v>147.4810844321742</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>378.6278235397694</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>353.6695123927814</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>84.97571041169579</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.5913466674049</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>38.53009859677883</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>92.48190207837939</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860455</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604555</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604577</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="41">
@@ -30706,7 +30706,7 @@
         <v>35.49541628604582</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604555</v>
+        <v>35.49541628604612</v>
       </c>
       <c r="G44" t="n">
         <v>35.49541628604582</v>
@@ -31045,7 +31045,7 @@
         <v>13.03339883161906</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954171</v>
+        <v>49.06335734954172</v>
       </c>
       <c r="J2" t="n">
         <v>108.0135173035644</v>
@@ -31060,10 +31060,10 @@
         <v>223.464010017579</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240931</v>
+        <v>227.0798913240932</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497333</v>
+        <v>214.4251021497334</v>
       </c>
       <c r="P2" t="n">
         <v>183.0068637847295</v>
@@ -31072,13 +31072,13 @@
         <v>137.4305331944834</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248295</v>
+        <v>79.94231557248297</v>
       </c>
       <c r="S2" t="n">
         <v>29.00022710855799</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100933</v>
+        <v>5.570970671100934</v>
       </c>
       <c r="U2" t="n">
         <v>0.1018110002714048</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859347</v>
+        <v>0.6809210943859348</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674687</v>
+        <v>6.576264253674688</v>
       </c>
       <c r="I3" t="n">
         <v>23.44399381986662</v>
       </c>
       <c r="J3" t="n">
-        <v>64.3321109393308</v>
+        <v>64.33211093933082</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631884</v>
+        <v>109.9538242631885</v>
       </c>
       <c r="L3" t="n">
         <v>147.8464858665601</v>
@@ -31142,16 +31142,16 @@
         <v>177.0962279648752</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313763</v>
+        <v>162.0084500313764</v>
       </c>
       <c r="P3" t="n">
         <v>130.0260640674335</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915898</v>
+        <v>86.918980399159</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248814</v>
+        <v>42.27683777248815</v>
       </c>
       <c r="S3" t="n">
         <v>12.64781067861593</v>
@@ -31160,7 +31160,7 @@
         <v>2.744589849739798</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0447974404201273</v>
+        <v>0.04479744042012732</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,43 +31197,43 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111302</v>
+        <v>0.5708613719111303</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173506</v>
+        <v>5.075476561173507</v>
       </c>
       <c r="I4" t="n">
         <v>17.16735834801836</v>
       </c>
       <c r="J4" t="n">
-        <v>40.3598989941169</v>
+        <v>40.35989899411691</v>
       </c>
       <c r="K4" t="n">
-        <v>66.3237121184022</v>
+        <v>66.32371211840221</v>
       </c>
       <c r="L4" t="n">
-        <v>84.8715170566784</v>
+        <v>84.87151705667841</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148743</v>
+        <v>89.48511487148744</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890964</v>
+        <v>87.35735884890966</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952205</v>
+        <v>80.68866009522051</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823339</v>
+        <v>69.04308810823341</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430382</v>
+        <v>47.80185542430383</v>
       </c>
       <c r="R4" t="n">
         <v>25.66800314065863</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760329</v>
+        <v>9.948556817760331</v>
       </c>
       <c r="T4" t="n">
         <v>2.439134952711192</v>
@@ -31850,7 +31850,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
         <v>557.7086478970249</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895185</v>
+        <v>96.06422794895187</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483556</v>
+        <v>265.9398243483557</v>
       </c>
       <c r="L2" t="n">
         <v>382.7265423970848</v>
@@ -34708,10 +34708,10 @@
         <v>442.6313102831388</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394863</v>
+        <v>435.0137521394864</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907919</v>
+        <v>365.127071990792</v>
       </c>
       <c r="P2" t="n">
         <v>273.5725762009426</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307295</v>
+        <v>63.58551961307296</v>
       </c>
       <c r="K3" t="n">
         <v>236.577622301408</v>
@@ -34787,13 +34787,13 @@
         <v>496.1009053660318</v>
       </c>
       <c r="N3" t="n">
-        <v>327.3151964123445</v>
+        <v>525.0968902250954</v>
       </c>
       <c r="O3" t="n">
         <v>413.2745248636614</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930404</v>
+        <v>116.7327314802895</v>
       </c>
       <c r="Q3" t="n">
         <v>157.0144940489866</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251935</v>
+        <v>44.05422029251936</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169945</v>
+        <v>112.4615423169946</v>
       </c>
       <c r="M4" t="n">
         <v>129.068991833328</v>
@@ -34872,7 +34872,7 @@
         <v>105.2737880092602</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312688</v>
+        <v>66.32164737312689</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35410,13 +35410,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>949.9515439201273</v>
+        <v>790.7193220678586</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129113</v>
@@ -35431,7 +35431,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525805</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>862.5366858288805</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.6435769268953</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M17" t="n">
-        <v>568.5399380881482</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>671.9201333872393</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>117.285442989463</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>568.8760771471033</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>674.9245771183485</v>
+        <v>673.1892972879003</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>713.3184833610711</v>
       </c>
       <c r="Q29" t="n">
-        <v>427.0116978485627</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>754.5075703690651</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>443.6990634924309</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>638.609089508486</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>800.4091526599022</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911199</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37473,7 +37473,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O37" t="n">
         <v>337.8485465086856</v>
@@ -37482,7 +37482,7 @@
         <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>704.1789685254216</v>
       </c>
       <c r="M38" t="n">
-        <v>737.7614656226243</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911199</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L40" t="n">
         <v>355.2527884562439</v>
@@ -37713,7 +37713,7 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311562</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>551.4883339734927</v>
       </c>
       <c r="Q41" t="n">
-        <v>258.4668217746377</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911205</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L43" t="n">
         <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
         <v>113.8896548239395</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>643.4403431804888</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>383.8349426963057</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911205</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L46" t="n">
         <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
         <v>113.8896548239395</v>
